--- a/data/08_reporting/history_predictions.xlsx
+++ b/data/08_reporting/history_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,193 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Setosa</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Setosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>09/18/2025, 23:53:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Virginica</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Virginica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>09/19/2025, 00:36:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Versicolor</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Versicolor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>09/19/2025, 01:02:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Setosa</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Setosa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>09/19/2025, 01:32:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Setosa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Setosa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>09/19/2025, 01:49:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Virginica</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Virginica</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>09/19/2025, 02:03:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Setosa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Setosa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>09/19/2025, 02:23:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Setosa</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Setosa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>09/19/2025, 02:44:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Virginica</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Virginica</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>09/19/2025, 03:41:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Versicolor</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Versicolor</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>09/19/2025, 04:00:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Virginica</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Virginica</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>09/19/2025, 08:16:42</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
